--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1405.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1405.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.973069185622703</v>
+        <v>1.19014048576355</v>
       </c>
       <c r="B1">
-        <v>2.606838904364858</v>
+        <v>1.847458839416504</v>
       </c>
       <c r="C1">
-        <v>2.7518933994402</v>
+        <v>6.666423320770264</v>
       </c>
       <c r="D1">
-        <v>3.298477154398244</v>
+        <v>2.284687519073486</v>
       </c>
       <c r="E1">
-        <v>0.8320674568086124</v>
+        <v>1.193082451820374</v>
       </c>
     </row>
   </sheetData>
